--- a/second_pass/welfare_results/isoelastic_NC/analysis_results/cor_and_elas_isoelastic_nc.xlsx
+++ b/second_pass/welfare_results/isoelastic_NC/analysis_results/cor_and_elas_isoelastic_nc.xlsx
@@ -463,15 +463,27 @@
       <c r="B2" t="n">
         <v>0.978445703173817</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="C2" t="n">
+        <v>-0.992244937086005</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.978445703173817</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.992244937086005</v>
+      </c>
       <c r="F2" t="n">
         <v>72.8753918662978</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="G2" t="n">
+        <v>-0.0568594319800132</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-5.72548981932817</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.723720330940137</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -480,15 +492,27 @@
       <c r="B3" t="n">
         <v>0.858108647676435</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="C3" t="n">
+        <v>0.877554283710211</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.858108647676435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.877554283710212</v>
+      </c>
       <c r="F3" t="n">
         <v>0.00254435523045804</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="G3" t="n">
+        <v>0.00000619043304612587</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.000397814498573243</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.00003959297802418</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -497,15 +521,27 @@
       <c r="B4" t="n">
         <v>0.96140458865591</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="C4" t="n">
+        <v>-0.963772899092752</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.961404588655909</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.963772899092752</v>
+      </c>
       <c r="F4" t="n">
         <v>165.930306433566</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="G4" t="n">
+        <v>-0.000735822045880693</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.048238696577185</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.53106294773527</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -514,15 +550,27 @@
       <c r="B5" t="n">
         <v>0.996754735111256</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="C5" t="n">
+        <v>-0.923315161675695</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.996754735111256</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.923315161675696</v>
+      </c>
       <c r="F5" t="n">
         <v>0.0248261849493195</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="G5" t="n">
+        <v>-0.000384890833527492</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.0273065728499456</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0003499293401248</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -531,15 +579,27 @@
       <c r="B6" t="n">
         <v>0.931693181546322</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
+      <c r="C6" t="n">
+        <v>0.988228841931752</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.931693181546321</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.988228841931752</v>
+      </c>
       <c r="F6" t="n">
         <v>0.0047001261183794</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="G6" t="n">
+        <v>0.000089691634301772</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.00555723315620139</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0000758582519632932</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -548,15 +608,27 @@
       <c r="B7" t="n">
         <v>0.972436504654332</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
+      <c r="C7" t="n">
+        <v>-0.879198123773873</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.972436504654332</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.879198123773872</v>
+      </c>
       <c r="F7" t="n">
         <v>0.101424722848992</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="G7" t="n">
+        <v>-0.00114899128457015</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.0835184688476392</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.00139533356156264</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -565,15 +637,27 @@
       <c r="B8" t="n">
         <v>0.984612346027066</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="C8" t="n">
+        <v>-0.978276699992534</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.984612346027066</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.978276699992534</v>
+      </c>
       <c r="F8" t="n">
         <v>4.59132957024497</v>
       </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="G8" t="n">
+        <v>-0.0135323719709395</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.895094281303397</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0694134471457636</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -582,15 +666,27 @@
       <c r="B9" t="n">
         <v>0.978004616666025</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
+      <c r="C9" t="n">
+        <v>-0.907556904465972</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.978004616666024</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.907556904465973</v>
+      </c>
       <c r="F9" t="n">
         <v>0.239485008692609</v>
       </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="G9" t="n">
+        <v>-0.000880992460886309</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.062392231681391</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.00338158263405104</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -599,15 +695,27 @@
       <c r="B10" t="n">
         <v>0.968609140697871</v>
       </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
+      <c r="C10" t="n">
+        <v>-0.919686646741361</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.968609140697871</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.919686646741361</v>
+      </c>
       <c r="F10" t="n">
         <v>0.083269198054012</v>
       </c>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+      <c r="G10" t="n">
+        <v>-0.00056828580168107</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.0393338788827849</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.00120305203340052</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -616,15 +724,27 @@
       <c r="B11" t="n">
         <v>0.988210637213618</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
+      <c r="C11" t="n">
+        <v>-0.969135616668426</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.988210637213618</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.969135616668425</v>
+      </c>
       <c r="F11" t="n">
         <v>0.161020683871765</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+      <c r="G11" t="n">
+        <v>-0.000986183151100742</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.0660866650418317</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.00240284307450736</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -633,15 +753,27 @@
       <c r="B12" t="n">
         <v>-0.786597091305082</v>
       </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="C12" t="n">
+        <v>-0.866475403156597</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.786597091305083</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.866475403156596</v>
+      </c>
       <c r="F12" t="n">
         <v>-0.00118517820060885</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="G12" t="n">
+        <v>-0.00000310598340500937</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.000185304734948614</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.0000198653521945391</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -650,15 +782,27 @@
       <c r="B13" t="n">
         <v>-0.521724823762677</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="C13" t="n">
+        <v>-0.77145063691929</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.521724823762677</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.77145063691929</v>
+      </c>
       <c r="F13" t="n">
         <v>-0.00074978083446401</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="G13" t="n">
+        <v>-0.00000263762195722469</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.000117229576724014</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.0000168697904347496</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -667,15 +811,27 @@
       <c r="B14" t="n">
         <v>-0.793891673248891</v>
       </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="C14" t="n">
+        <v>0.763074100573749</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.793891673248891</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.763074100573749</v>
+      </c>
       <c r="F14" t="n">
         <v>-0.00950693336296232</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
+      <c r="G14" t="n">
+        <v>0.0000039837615529486</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.000452822281118091</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.0000836384541950943</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -684,15 +840,27 @@
       <c r="B15" t="n">
         <v>0.757082729769264</v>
       </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="C15" t="n">
+        <v>0.903061937588012</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.757082729769263</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.903061937588013</v>
+      </c>
       <c r="F15" t="n">
         <v>0.00059980474591938</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
+      <c r="G15" t="n">
+        <v>0.0000128718779954957</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.000709184123429318</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0000108866135824642</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -701,15 +869,27 @@
       <c r="B16" t="n">
         <v>-0.557459045373724</v>
       </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="C16" t="n">
+        <v>0.548843049801487</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.557459045373726</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.548843049801487</v>
+      </c>
       <c r="F16" t="n">
         <v>-0.000799226509082303</v>
       </c>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="G16" t="n">
+        <v>0.000000859971408592146</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0000574037280953252</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.000011973298069741</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -718,15 +898,27 @@
       <c r="B17" t="n">
         <v>0.594635188154063</v>
       </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="C17" t="n">
+        <v>-0.346605149764271</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.594635188154062</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.34660514976427</v>
+      </c>
       <c r="F17" t="n">
         <v>0.0268204257469662</v>
       </c>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
+      <c r="G17" t="n">
+        <v>-0.0000547822446586284</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.00617656058733067</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.000237880468319645</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -735,15 +927,27 @@
       <c r="B18" t="n">
         <v>0.713533236149945</v>
       </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="C18" t="n">
+        <v>-0.744513021746061</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.713533236149946</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.74451302174606</v>
+      </c>
       <c r="F18" t="n">
         <v>0.0372685163729708</v>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="G18" t="n">
+        <v>-0.00024285165999323</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.0152958731693626</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.000591709996967631</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -752,15 +956,27 @@
       <c r="B19" t="n">
         <v>0.913986017281333</v>
       </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
+      <c r="C19" t="n">
+        <v>-0.742098653688219</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.913986017281333</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.742098653688219</v>
+      </c>
       <c r="F19" t="n">
         <v>0.0995872123477592</v>
       </c>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="G19" t="n">
+        <v>-0.0015541889207187</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.125797788105736</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.00123036616467417</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -769,15 +985,27 @@
       <c r="B20" t="n">
         <v>0.265268303719946</v>
       </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+      <c r="C20" t="n">
+        <v>-0.057958138222745</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.265268303719946</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.057958138222745</v>
+      </c>
       <c r="F20" t="n">
         <v>0.0109015410894385</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="G20" t="n">
+        <v>-0.00000723386864074146</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.0021758694796591</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0000362431280735638</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
